--- a/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-32,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,81%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,16; 1,41</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 3,73</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 1,04</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-77,32; 43,45</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,08; 133,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,96; 27,42</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 1,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 3,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 1,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 0,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,24; 31,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,77; 126,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,9; 35,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,26; 14,16</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 0,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 3,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,64; 148,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; 86,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,04; 9,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,05; 78,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,72%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 4,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 1,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 8,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 1,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,75; 179,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,22; 31,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 169,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,51; 40,14</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 1,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; 4,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 2,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 3,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,63; 35,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,73; 116,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,51; 58,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,26; 157,93</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,73%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 5,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 4,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 7,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 1,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,42; 118,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,49; 99,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,11; 253,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,47; 39,79</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,32%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; -0,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 0,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 1,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,03; 93,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,41; -8,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,39; 18,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,27; 35,18</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 2,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 2,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 0,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 2,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,71; 48,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,62; 110,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,61; 17,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,77; 52,26</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,83%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 0,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 0,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; 18,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,39; 11,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; 9,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,11; 6,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,81%</t>
+          <t>-26,11%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 4,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,04</t>
+          <t>-4,58; 1,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 133,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,96; 27,42</t>
+          <t>-62,7; 37,45</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,46%</t>
+          <t>-26,62%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,71</t>
+          <t>-4,63; 0,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,26; 14,16</t>
+          <t>-55,92; 18,01</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>13,66%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,77</t>
+          <t>-2,33; 3,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 78,55</t>
+          <t>-30,4; 81,09</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>-32,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,72%</t>
+          <t>-36,31%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,56</t>
+          <t>-6,48; 0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,78</t>
+          <t>-5,64; 0,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 31,23</t>
+          <t>-64,37; 16,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,51; 40,14</t>
+          <t>-68,44; 16,29</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>27,98%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,37</t>
+          <t>-1,77; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 157,93</t>
+          <t>-36,88; 155,44</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>-12,48%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,76</t>
+          <t>-3,62; 1,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 39,79</t>
+          <t>-46,73; 41,88</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-13,32%</t>
+          <t>-21,99%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,71</t>
+          <t>-4,19; 1,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 35,18</t>
+          <t>-62,78; 25,1</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>30,43%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,24</t>
+          <t>-0,98; 4,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 52,26</t>
+          <t>-15,98; 223,79</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>-8,99%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,35</t>
+          <t>-1,67; 0,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 6,21</t>
+          <t>-28,11; 18,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,41</t>
+          <t>-4,67; 1,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,41</t>
+          <t>-3,17; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,73</t>
+          <t>-3,27; 3,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 1,29</t>
+          <t>-4,3; 1,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 43,45</t>
+          <t>-71,94; 66,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 133,47</t>
+          <t>-46,04; 165,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,08; 133,84</t>
+          <t>-55,67; 135,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 37,45</t>
+          <t>-61,06; 44,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,39</t>
+          <t>-4,76; 1,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,73</t>
+          <t>-1,49; 3,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,72</t>
+          <t>-4,64; 1,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,8</t>
+          <t>-4,64; 0,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 31,07</t>
+          <t>-55,4; 30,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 126,08</t>
+          <t>-29,88; 133,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 35,82</t>
+          <t>-55,84; 21,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,92; 18,01</t>
+          <t>-56,69; 21,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,3</t>
+          <t>-2,8; 3,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,86</t>
+          <t>-3,51; 4,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,18</t>
+          <t>-6,23; -0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,77</t>
+          <t>-2,68; 3,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 148,93</t>
+          <t>-46,27; 145,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 86,66</t>
+          <t>-43,84; 102,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-83,04; 9,57</t>
+          <t>-80,64; 11,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 81,09</t>
+          <t>-31,87; 76,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,71</t>
+          <t>-1,07; 5,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,81</t>
+          <t>-6,05; 1,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,7</t>
+          <t>-0,2; 8,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 0,77</t>
+          <t>-5,32; 0,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 179,27</t>
+          <t>-22,88; 183,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 16,9</t>
+          <t>-64,71; 25,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 169,1</t>
+          <t>-4,17; 168,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 16,29</t>
+          <t>-67,55; 18,33</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 1,69</t>
+          <t>-7,38; 1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,86</t>
+          <t>-4,77; 4,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,13</t>
+          <t>-6,15; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,34</t>
+          <t>-1,53; 3,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-73,63; 35,36</t>
+          <t>-70,81; 48,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 116,53</t>
+          <t>-56,44; 111,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 58,32</t>
+          <t>-75,31; 77,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 155,44</t>
+          <t>-31,78; 161,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,06</t>
+          <t>-3,47; 4,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 4,45</t>
+          <t>-3,86; 4,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,43</t>
+          <t>-1,42; 6,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,85</t>
+          <t>-3,54; 1,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 118,32</t>
+          <t>-43,49; 107,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 99,33</t>
+          <t>-47,33; 116,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 253,26</t>
+          <t>-27,36; 215,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 41,88</t>
+          <t>-46,02; 44,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,1</t>
+          <t>-1,84; 2,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,62</t>
+          <t>-5,44; -0,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,73</t>
+          <t>-4,2; 0,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,21</t>
+          <t>-4,26; 0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 93,27</t>
+          <t>-34,46; 82,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-67,41; -8,11</t>
+          <t>-67,85; -9,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 18,04</t>
+          <t>-61,56; 15,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 25,1</t>
+          <t>-62,89; 20,01</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,22</t>
+          <t>-2,44; 2,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,44</t>
+          <t>-1,27; 2,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,91</t>
+          <t>-3,89; 0,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,67</t>
+          <t>-0,9; 4,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 48,93</t>
+          <t>-35,02; 56,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 110,12</t>
+          <t>-32,1; 125,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 17,76</t>
+          <t>-49,35; 16,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 223,79</t>
+          <t>-15,37; 184,85</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,92</t>
+          <t>-1,16; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,53</t>
+          <t>-1,68; 0,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,49</t>
+          <t>-1,75; 0,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,86</t>
+          <t>-1,58; 0,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 18,58</t>
+          <t>-19,04; 20,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 11,87</t>
+          <t>-28,5; 12,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 9,19</t>
+          <t>-26,44; 9,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 18,66</t>
+          <t>-27,04; 15,99</t>
         </is>
       </c>
     </row>
